--- a/IdeaBox.xlsx
+++ b/IdeaBox.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25317"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16580" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
   <si>
     <t>S.No.</t>
   </si>
@@ -75,10 +75,13 @@
     <t>- How do we leverage?</t>
   </si>
   <si>
-    <t>General ML Questions:</t>
-  </si>
-  <si>
     <t>How do you decide the macro qs, the method to use, loss function, gradient descent or not?</t>
+  </si>
+  <si>
+    <t>General Questions:</t>
+  </si>
+  <si>
+    <t>- Need inspiration!</t>
   </si>
 </sst>
 </file>
@@ -152,9 +155,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -167,6 +167,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -501,24 +502,24 @@
   <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="7.33203125" customWidth="1"/>
-    <col min="2" max="2" width="108.33203125" style="6" customWidth="1"/>
-    <col min="3" max="3" width="38.33203125" style="6" customWidth="1"/>
+    <col min="2" max="2" width="108.33203125" style="5" customWidth="1"/>
+    <col min="3" max="3" width="38.33203125" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="9" customFormat="1">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:3" s="8" customFormat="1">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="7" t="s">
         <v>2</v>
       </c>
     </row>
@@ -632,17 +633,19 @@
     </row>
     <row r="14" spans="1:3" ht="16">
       <c r="A14" s="2"/>
-      <c r="B14" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C14" s="4"/>
+      <c r="B14" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" s="2"/>
     </row>
     <row r="15" spans="1:3" ht="16">
       <c r="A15" s="2"/>
-      <c r="B15" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C15" s="4"/>
+      <c r="B15" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>18</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/IdeaBox.xlsx
+++ b/IdeaBox.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="21">
   <si>
     <t>S.No.</t>
   </si>
@@ -75,20 +75,26 @@
     <t>- How do we leverage?</t>
   </si>
   <si>
-    <t>How do you decide the macro qs, the method to use, loss function, gradient descent or not?</t>
-  </si>
-  <si>
-    <t>General Questions:</t>
-  </si>
-  <si>
     <t>- Need inspiration!</t>
+  </si>
+  <si>
+    <t>GOAL:</t>
+  </si>
+  <si>
+    <t>Is this dataset ok?</t>
+  </si>
+  <si>
+    <t>What the macro question(s), null hypothesis should be?</t>
+  </si>
+  <si>
+    <t>What model(s) should we use?</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -118,6 +124,22 @@
       <color theme="1"/>
       <name val="Arial"/>
     </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -142,8 +164,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -169,7 +201,17 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="11">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -499,10 +541,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -523,19 +565,19 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="32">
-      <c r="A2" s="1">
+    <row r="2" spans="1:3" ht="30">
+      <c r="A2" s="3">
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="1">
+      <c r="A3" s="3">
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
@@ -546,7 +588,7 @@
       </c>
     </row>
     <row r="4" spans="1:3" ht="60">
-      <c r="A4" s="1">
+      <c r="A4" s="3">
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
@@ -557,7 +599,7 @@
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="3" t="s">
         <v>9</v>
       </c>
       <c r="B5" s="3" t="s">
@@ -568,54 +610,54 @@
       </c>
     </row>
     <row r="6" spans="1:3" ht="30">
-      <c r="A6" s="1">
+      <c r="A6" s="3">
         <v>5</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="3" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="30">
-      <c r="A7" s="1">
+      <c r="A7" s="3">
         <v>6</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="16">
-      <c r="A8" s="1">
+    <row r="8" spans="1:3">
+      <c r="A8" s="3">
         <v>7</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="3" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="16">
-      <c r="A9" s="1">
+      <c r="A9" s="3">
         <v>8</v>
       </c>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
     </row>
     <row r="10" spans="1:3" ht="16">
-      <c r="A10" s="1">
+      <c r="A10" s="3">
         <v>9</v>
       </c>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
     </row>
     <row r="11" spans="1:3" ht="16">
-      <c r="A11" s="1">
+      <c r="A11" s="3">
         <v>10</v>
       </c>
       <c r="B11" s="4"/>
@@ -640,15 +682,29 @@
     </row>
     <row r="15" spans="1:3" ht="16">
       <c r="A15" s="2"/>
-      <c r="B15" s="2" t="s">
+      <c r="B15" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C15" s="2" t="s">
+    </row>
+    <row r="16" spans="1:3" ht="16">
+      <c r="B16" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" ht="16">
+      <c r="B17" s="4" t="s">
         <v>18</v>
       </c>
+    </row>
+    <row r="18" spans="2:2" ht="16">
+      <c r="B18" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
